--- a/统计.xlsx
+++ b/统计.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -483,25 +483,78 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
+      <c r="J3">
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <v>95</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="0">AVERAGE(B4:K4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="L5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="L6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
